--- a/data_6.xlsx
+++ b/data_6.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>7.28937365738062</v>
+        <v>7.230484175805361</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12155956954758741</v>
+        <v>0.12383880814301822</v>
       </c>
       <c r="D2" t="n">
-        <v>4.74990105237285</v>
+        <v>4.777114194447364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1855262626543524</v>
+        <v>0.18664026871658232</v>
       </c>
       <c r="F2" t="n">
         <v>0.05110060320624709</v>
@@ -132,7 +132,7 @@
         <v>11.860914632849637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2500596821807959</v>
+        <v>0.2494108667813338</v>
       </c>
       <c r="D3" t="n">
         <v>8.644745589918015</v>
@@ -152,7 +152,7 @@
         <v>12.317404045143926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6283807482716167</v>
+        <v>0.626750325075648</v>
       </c>
       <c r="D4" t="n">
         <v>9.973428968472748</v>
